--- a/biology/Neurosciences/Patricia_Janak/Patricia_Janak.xlsx
+++ b/biology/Neurosciences/Patricia_Janak/Patricia_Janak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patricia Janak est professeure émérite Bloomberg à l'université Johns-Hopkins où elle étudie les bases biologiques du comportement grâce à l'apprentissage par association[1].
-Janak applique cette recherche à des comportements pathologiques, tels que la toxicomanie et le trouble de stress post-traumatique, pour améliorer la compréhension de la façon dont les stimuli affectent la rechute et les réponses[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patricia Janak est professeure émérite Bloomberg à l'université Johns-Hopkins où elle étudie les bases biologiques du comportement grâce à l'apprentissage par association.
+Janak applique cette recherche à des comportements pathologiques, tels que la toxicomanie et le trouble de stress post-traumatique, pour améliorer la compréhension de la façon dont les stimuli affectent la rechute et les réponses.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patricia Janak naît en 1965 de Peter Janak et Bonnie Stringellow[3]. Janak commence sa formation en sciences biologiques et en sciences du comportement à l'université Rutgers. Elle obtient une maîtrise et un doctorat en psychologie de l'université de Californie à Berkeley, ce dernier avec Joe L. Martinez Jr[4]. Tout en terminant son travail de doctorat, elle occupe également des postes de professeur auxiliaire à l'Institut Wright, à l'université de Santa Clara et à l'université d'État de Californie à East Bay. Elle effectue des travaux postdoctoraux à l'Institut national de lutte contre l'abus des drogues, une branche des National Institutes of Health, et en physiologie et pharmacologie à la Wake Forest School of Medicine (en) sous la direction de Donald J. Woodward[5] qui a été le pionnier du développement des « techniques d'enregistrement comportemental et multi-neuronal des animaux éveillés » dans les années 1990[6]. Janak rejoint la faculté de l'université de Californie à San Francisco en tant que professeur adjoint à la clinique et au centre de recherche Ernest Gallo en 1999[7]. Elle est nommée titulaire de la chaire Howard J. Weinberger de recherche en toxicomanie à l'USCF en 2011[8].
-En juin 2014, Janak est nommée professeure émérite Bloomberg à l'université Johns-Hopkins pour ses réalisations en tant que chercheuse interdisciplinaire et son excellence dans l'enseignement[9],[10]. Le programme chaire Bloomberg a été créé en 2013 grâce à un don de Michael Bloomberg[11],[12]. Janak détient des nominations conjointes au Département des sciences psychologiques et cérébrales de l'École des arts et des sciences de l'université Johns-Hopkins[13] et au département de neurosciences Solomon H. Snyder de l'École de médecine Johns-Hopkins[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patricia Janak naît en 1965 de Peter Janak et Bonnie Stringellow. Janak commence sa formation en sciences biologiques et en sciences du comportement à l'université Rutgers. Elle obtient une maîtrise et un doctorat en psychologie de l'université de Californie à Berkeley, ce dernier avec Joe L. Martinez Jr. Tout en terminant son travail de doctorat, elle occupe également des postes de professeur auxiliaire à l'Institut Wright, à l'université de Santa Clara et à l'université d'État de Californie à East Bay. Elle effectue des travaux postdoctoraux à l'Institut national de lutte contre l'abus des drogues, une branche des National Institutes of Health, et en physiologie et pharmacologie à la Wake Forest School of Medicine (en) sous la direction de Donald J. Woodward qui a été le pionnier du développement des « techniques d'enregistrement comportemental et multi-neuronal des animaux éveillés » dans les années 1990. Janak rejoint la faculté de l'université de Californie à San Francisco en tant que professeur adjoint à la clinique et au centre de recherche Ernest Gallo en 1999. Elle est nommée titulaire de la chaire Howard J. Weinberger de recherche en toxicomanie à l'USCF en 2011.
+En juin 2014, Janak est nommée professeure émérite Bloomberg à l'université Johns-Hopkins pour ses réalisations en tant que chercheuse interdisciplinaire et son excellence dans l'enseignement,. Le programme chaire Bloomberg a été créé en 2013 grâce à un don de Michael Bloomberg,. Janak détient des nominations conjointes au Département des sciences psychologiques et cérébrales de l'École des arts et des sciences de l'université Johns-Hopkins et au département de neurosciences Solomon H. Snyder de l'École de médecine Johns-Hopkins.
 </t>
         </is>
       </c>
